--- a/predictions/Прогнозы_ETS_EM4.xlsx
+++ b/predictions/Прогнозы_ETS_EM4.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16495369.87772438</v>
+        <v>18542321.98514341</v>
       </c>
       <c r="C2" t="n">
-        <v>18367089.82701097</v>
+        <v>17732566.39652463</v>
       </c>
       <c r="D2" t="n">
-        <v>18361351.24200007</v>
+        <v>17463630.05556634</v>
       </c>
       <c r="E2" t="n">
-        <v>18785795.4357031</v>
+        <v>14227902.97285045</v>
       </c>
       <c r="F2" t="n">
-        <v>15297933.65289165</v>
+        <v>16430836.45952562</v>
       </c>
       <c r="G2" t="n">
-        <v>17169653.60217824</v>
+        <v>15621080.87090684</v>
       </c>
       <c r="H2" t="n">
-        <v>17163915.01716734</v>
+        <v>15352144.52994855</v>
       </c>
       <c r="I2" t="n">
-        <v>17588359.21087037</v>
+        <v>12116417.44723265</v>
       </c>
       <c r="J2" t="n">
-        <v>14100497.42805892</v>
+        <v>14319350.93390782</v>
       </c>
       <c r="K2" t="n">
-        <v>15972217.37734552</v>
+        <v>13509595.34528904</v>
       </c>
       <c r="L2" t="n">
-        <v>15966478.79233462</v>
+        <v>13240659.00433074</v>
       </c>
       <c r="M2" t="n">
-        <v>16390922.98603765</v>
+        <v>10004931.92161485</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15578404.99129046</v>
+        <v>14092786.00623881</v>
       </c>
       <c r="C3" t="n">
-        <v>16479082.8748112</v>
+        <v>14584784.25645752</v>
       </c>
       <c r="D3" t="n">
-        <v>17381451.24520167</v>
+        <v>15074602.66941329</v>
       </c>
       <c r="E3" t="n">
-        <v>18281727.80655956</v>
+        <v>15565246.04548176</v>
       </c>
       <c r="F3" t="n">
-        <v>19183441.64415178</v>
+        <v>16056177.6359343</v>
       </c>
       <c r="G3" t="n">
-        <v>20084119.52767252</v>
+        <v>16548175.88615301</v>
       </c>
       <c r="H3" t="n">
-        <v>20986487.898063</v>
+        <v>17037994.29910878</v>
       </c>
       <c r="I3" t="n">
-        <v>21886764.45942088</v>
+        <v>17528637.67517725</v>
       </c>
       <c r="J3" t="n">
-        <v>22788478.29701311</v>
+        <v>18019569.26562979</v>
       </c>
       <c r="K3" t="n">
-        <v>23689156.18053385</v>
+        <v>18511567.5158485</v>
       </c>
       <c r="L3" t="n">
-        <v>24591524.55092432</v>
+        <v>19001385.92880427</v>
       </c>
       <c r="M3" t="n">
-        <v>25491801.11228221</v>
+        <v>19492029.30487274</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25330586.37609448</v>
+        <v>62530745.49337207</v>
       </c>
       <c r="C4" t="n">
-        <v>30434990.24450344</v>
+        <v>70692403.68247682</v>
       </c>
       <c r="D4" t="n">
-        <v>31295774.57732478</v>
+        <v>80662938.77220409</v>
       </c>
       <c r="E4" t="n">
-        <v>35825336.06532226</v>
+        <v>89544098.94071248</v>
       </c>
       <c r="F4" t="n">
-        <v>37211666.36912578</v>
+        <v>98407185.04243718</v>
       </c>
       <c r="G4" t="n">
-        <v>42316070.23753474</v>
+        <v>106568843.2315419</v>
       </c>
       <c r="H4" t="n">
-        <v>43176854.57035608</v>
+        <v>116539378.3212692</v>
       </c>
       <c r="I4" t="n">
-        <v>47706416.05835355</v>
+        <v>125420538.4897776</v>
       </c>
       <c r="J4" t="n">
-        <v>49092746.36215708</v>
+        <v>134283624.5915023</v>
       </c>
       <c r="K4" t="n">
-        <v>54197150.23056603</v>
+        <v>142445282.780607</v>
       </c>
       <c r="L4" t="n">
-        <v>55057934.56338737</v>
+        <v>152415817.8703343</v>
       </c>
       <c r="M4" t="n">
-        <v>59587496.05138484</v>
+        <v>161296978.0388427</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22512337.09640396</v>
+        <v>30284098.55389772</v>
       </c>
       <c r="C5" t="n">
-        <v>22250588.26845714</v>
+        <v>32077189.8238318</v>
       </c>
       <c r="D5" t="n">
-        <v>24146573.57430239</v>
+        <v>39834783.98480426</v>
       </c>
       <c r="E5" t="n">
-        <v>30091313.04282876</v>
+        <v>27583319.60641201</v>
       </c>
       <c r="F5" t="n">
-        <v>32929855.90226132</v>
+        <v>35238194.48347444</v>
       </c>
       <c r="G5" t="n">
-        <v>32668107.0743145</v>
+        <v>37031285.75340852</v>
       </c>
       <c r="H5" t="n">
-        <v>34564092.38015976</v>
+        <v>44788879.91438098</v>
       </c>
       <c r="I5" t="n">
-        <v>40508831.84868612</v>
+        <v>32537415.53598873</v>
       </c>
       <c r="J5" t="n">
-        <v>43347374.70811868</v>
+        <v>40192290.41305117</v>
       </c>
       <c r="K5" t="n">
-        <v>43085625.88017186</v>
+        <v>41985381.68298525</v>
       </c>
       <c r="L5" t="n">
-        <v>44981611.18601712</v>
+        <v>49742975.84395771</v>
       </c>
       <c r="M5" t="n">
-        <v>50926350.65454348</v>
+        <v>37491511.46556546</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11510168.45320369</v>
+        <v>648159.176302415</v>
       </c>
       <c r="C6" t="n">
-        <v>13663255.44178189</v>
+        <v>1237224.03441153</v>
       </c>
       <c r="D6" t="n">
-        <v>13798254.06171408</v>
+        <v>295110.0473088804</v>
       </c>
       <c r="E6" t="n">
-        <v>16376800.37624127</v>
+        <v>724917.4846198527</v>
       </c>
       <c r="F6" t="n">
-        <v>13598589.84684866</v>
+        <v>381139.4300103142</v>
       </c>
       <c r="G6" t="n">
-        <v>15751676.83542686</v>
+        <v>970204.2881194288</v>
       </c>
       <c r="H6" t="n">
-        <v>15886675.45535905</v>
+        <v>28090.30101677967</v>
       </c>
       <c r="I6" t="n">
-        <v>18465221.76988625</v>
+        <v>457897.738327752</v>
       </c>
       <c r="J6" t="n">
-        <v>15687011.24049363</v>
+        <v>114119.6837182134</v>
       </c>
       <c r="K6" t="n">
-        <v>17840098.22907184</v>
+        <v>703184.541827328</v>
       </c>
       <c r="L6" t="n">
-        <v>17975096.84900403</v>
+        <v>-238929.4452753211</v>
       </c>
       <c r="M6" t="n">
-        <v>20553643.16353122</v>
+        <v>190877.9920356513</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2364979.281600065</v>
+        <v>13183976.62001704</v>
       </c>
       <c r="C7" t="n">
-        <v>3532026.295212575</v>
+        <v>13583857.35328511</v>
       </c>
       <c r="D7" t="n">
-        <v>3503582.946695564</v>
+        <v>13984172.50652746</v>
       </c>
       <c r="E7" t="n">
-        <v>3792438.670110472</v>
+        <v>14383698.99007853</v>
       </c>
       <c r="F7" t="n">
-        <v>2559153.019457345</v>
+        <v>14784285.52618977</v>
       </c>
       <c r="G7" t="n">
-        <v>3726200.033069856</v>
+        <v>15184166.25945784</v>
       </c>
       <c r="H7" t="n">
-        <v>3697756.684552845</v>
+        <v>15584481.41270019</v>
       </c>
       <c r="I7" t="n">
-        <v>3986612.407967752</v>
+        <v>15984007.89625126</v>
       </c>
       <c r="J7" t="n">
-        <v>2753326.757314626</v>
+        <v>16384594.4323625</v>
       </c>
       <c r="K7" t="n">
-        <v>3920373.770927136</v>
+        <v>16784475.16563058</v>
       </c>
       <c r="L7" t="n">
-        <v>3891930.422410125</v>
+        <v>17184790.31887292</v>
       </c>
       <c r="M7" t="n">
-        <v>4180786.145825032</v>
+        <v>17584316.80242399</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1253114.794121748</v>
+        <v>19782838.14138956</v>
       </c>
       <c r="C8" t="n">
-        <v>1619949.495733358</v>
+        <v>20832682.90336958</v>
       </c>
       <c r="D8" t="n">
-        <v>2052638.713653428</v>
+        <v>21052750.81528429</v>
       </c>
       <c r="E8" t="n">
-        <v>1676878.977349817</v>
+        <v>18919986.75630108</v>
       </c>
       <c r="F8" t="n">
-        <v>1355086.456449735</v>
+        <v>20711116.17929152</v>
       </c>
       <c r="G8" t="n">
-        <v>1721921.158061345</v>
+        <v>21760960.94127155</v>
       </c>
       <c r="H8" t="n">
-        <v>2154610.375981415</v>
+        <v>21981028.85318626</v>
       </c>
       <c r="I8" t="n">
-        <v>1778850.639677804</v>
+        <v>19848264.79420305</v>
       </c>
       <c r="J8" t="n">
-        <v>1457058.118777723</v>
+        <v>21639394.21719349</v>
       </c>
       <c r="K8" t="n">
-        <v>1823892.820389332</v>
+        <v>22689238.97917352</v>
       </c>
       <c r="L8" t="n">
-        <v>2256582.038309402</v>
+        <v>22909306.89108822</v>
       </c>
       <c r="M8" t="n">
-        <v>1880822.302005791</v>
+        <v>20776542.83210502</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12154379.14321832</v>
+        <v>33176416.57865465</v>
       </c>
       <c r="C9" t="n">
-        <v>15198891.48133934</v>
+        <v>33993382.61110791</v>
       </c>
       <c r="D9" t="n">
-        <v>18243109.70244242</v>
+        <v>36090627.78456699</v>
       </c>
       <c r="E9" t="n">
-        <v>21287537.40379423</v>
+        <v>30356881.89674072</v>
       </c>
       <c r="F9" t="n">
-        <v>24331727.09884912</v>
+        <v>36041582.56091011</v>
       </c>
       <c r="G9" t="n">
-        <v>27376239.43697015</v>
+        <v>36858548.59336337</v>
       </c>
       <c r="H9" t="n">
-        <v>30420457.65807322</v>
+        <v>38955793.76682245</v>
       </c>
       <c r="I9" t="n">
-        <v>33464885.35942503</v>
+        <v>33222047.87899617</v>
       </c>
       <c r="J9" t="n">
-        <v>36509075.05447993</v>
+        <v>38906748.54316556</v>
       </c>
       <c r="K9" t="n">
-        <v>39553587.39260095</v>
+        <v>39723714.57561883</v>
       </c>
       <c r="L9" t="n">
-        <v>42597805.61370403</v>
+        <v>41820959.74907791</v>
       </c>
       <c r="M9" t="n">
-        <v>45642233.31505584</v>
+        <v>36087213.86125163</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6695032.409413555</v>
+        <v>15147421.30691269</v>
       </c>
       <c r="C10" t="n">
-        <v>6683096.291215727</v>
+        <v>15153454.66476078</v>
       </c>
       <c r="D10" t="n">
-        <v>8461392.697819212</v>
+        <v>15156761.50017018</v>
       </c>
       <c r="E10" t="n">
-        <v>13559971.07091136</v>
+        <v>15159931.29613145</v>
       </c>
       <c r="F10" t="n">
-        <v>8772018.624405287</v>
+        <v>15165680.69399716</v>
       </c>
       <c r="G10" t="n">
-        <v>8760082.506207461</v>
+        <v>15171714.05184525</v>
       </c>
       <c r="H10" t="n">
-        <v>10538378.91281095</v>
+        <v>15175020.88725465</v>
       </c>
       <c r="I10" t="n">
-        <v>15636957.28590309</v>
+        <v>15178190.68321592</v>
       </c>
       <c r="J10" t="n">
-        <v>10849004.83939702</v>
+        <v>15183940.08108163</v>
       </c>
       <c r="K10" t="n">
-        <v>10837068.72119919</v>
+        <v>15189973.43892972</v>
       </c>
       <c r="L10" t="n">
-        <v>12615365.12780268</v>
+        <v>15193280.27433912</v>
       </c>
       <c r="M10" t="n">
-        <v>17713943.50089483</v>
+        <v>15196450.07030039</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1378871.82388745</v>
+        <v>22271024.15205225</v>
       </c>
       <c r="C11" t="n">
-        <v>202996.8659903239</v>
+        <v>21522561.46389371</v>
       </c>
       <c r="D11" t="n">
-        <v>870037.1100873225</v>
+        <v>22210776.72719806</v>
       </c>
       <c r="E11" t="n">
-        <v>347329.4503791585</v>
+        <v>20422984.12528902</v>
       </c>
       <c r="F11" t="n">
-        <v>1379745.654933776</v>
+        <v>24855457.4613831</v>
       </c>
       <c r="G11" t="n">
-        <v>203870.69703665</v>
+        <v>24106994.77322456</v>
       </c>
       <c r="H11" t="n">
-        <v>870910.9411336486</v>
+        <v>24795210.03652891</v>
       </c>
       <c r="I11" t="n">
-        <v>348203.2814254846</v>
+        <v>23007417.43461987</v>
       </c>
       <c r="J11" t="n">
-        <v>1380619.485980102</v>
+        <v>27439890.77071395</v>
       </c>
       <c r="K11" t="n">
-        <v>204744.5280829761</v>
+        <v>26691428.08255541</v>
       </c>
       <c r="L11" t="n">
-        <v>871784.7721799747</v>
+        <v>27379643.34585976</v>
       </c>
       <c r="M11" t="n">
-        <v>349077.1124718107</v>
+        <v>25591850.74395072</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>549419.2318544851</v>
+        <v>48350148.47815308</v>
       </c>
       <c r="C12" t="n">
-        <v>447493.3436409959</v>
+        <v>51715193.40064453</v>
       </c>
       <c r="D12" t="n">
-        <v>836317.6550384494</v>
+        <v>43362028.38128288</v>
       </c>
       <c r="E12" t="n">
-        <v>849557.9953447417</v>
+        <v>44145527.39318915</v>
       </c>
       <c r="F12" t="n">
-        <v>628546.9282839668</v>
+        <v>50199987.97161305</v>
       </c>
       <c r="G12" t="n">
-        <v>526621.0400704776</v>
+        <v>53565032.8941045</v>
       </c>
       <c r="H12" t="n">
-        <v>915445.3514679312</v>
+        <v>45211867.87474285</v>
       </c>
       <c r="I12" t="n">
-        <v>928685.6917742235</v>
+        <v>45995366.88664912</v>
       </c>
       <c r="J12" t="n">
-        <v>707674.6247134486</v>
+        <v>52049827.46507302</v>
       </c>
       <c r="K12" t="n">
-        <v>605748.7364999594</v>
+        <v>55414872.38756447</v>
       </c>
       <c r="L12" t="n">
-        <v>994573.0478974129</v>
+        <v>47061707.36820282</v>
       </c>
       <c r="M12" t="n">
-        <v>1007813.388203705</v>
+        <v>47845206.38010909</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3208809.70507586</v>
+        <v>32203559.7060708</v>
       </c>
       <c r="C13" t="n">
-        <v>3554887.305169508</v>
+        <v>34230714.7885368</v>
       </c>
       <c r="D13" t="n">
-        <v>3901131.214140374</v>
+        <v>32200229.1628744</v>
       </c>
       <c r="E13" t="n">
-        <v>4247125.374871447</v>
+        <v>31171842.53128041</v>
       </c>
       <c r="F13" t="n">
-        <v>4593346.979073297</v>
+        <v>31825539.41793211</v>
       </c>
       <c r="G13" t="n">
-        <v>4939424.579166945</v>
+        <v>33852694.50039811</v>
       </c>
       <c r="H13" t="n">
-        <v>5285668.488137811</v>
+        <v>31822208.87473572</v>
       </c>
       <c r="I13" t="n">
-        <v>5631662.648868884</v>
+        <v>30793822.24314172</v>
       </c>
       <c r="J13" t="n">
-        <v>5977884.253070734</v>
+        <v>31447519.12979342</v>
       </c>
       <c r="K13" t="n">
-        <v>6323961.853164382</v>
+        <v>33474674.21225943</v>
       </c>
       <c r="L13" t="n">
-        <v>6670205.762135249</v>
+        <v>31444188.58659703</v>
       </c>
       <c r="M13" t="n">
-        <v>7016199.922866321</v>
+        <v>30415801.95500303</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>23086.771148698</v>
+        <v>977587.2904474075</v>
       </c>
       <c r="C14" t="n">
-        <v>152334.9851305494</v>
+        <v>1049922.269157679</v>
       </c>
       <c r="D14" t="n">
-        <v>108485.62208026</v>
+        <v>1015146.19923636</v>
       </c>
       <c r="E14" t="n">
-        <v>74481.01145122929</v>
+        <v>957785.573144832</v>
       </c>
       <c r="F14" t="n">
-        <v>23140.10528280813</v>
+        <v>1035721.050697133</v>
       </c>
       <c r="G14" t="n">
-        <v>152388.3192646595</v>
+        <v>1108056.029407404</v>
       </c>
       <c r="H14" t="n">
-        <v>108538.9562143702</v>
+        <v>1073279.959486085</v>
       </c>
       <c r="I14" t="n">
-        <v>74534.34558533943</v>
+        <v>1015919.333394557</v>
       </c>
       <c r="J14" t="n">
-        <v>23193.43941691826</v>
+        <v>1093854.810946858</v>
       </c>
       <c r="K14" t="n">
-        <v>152441.6533987697</v>
+        <v>1166189.789657129</v>
       </c>
       <c r="L14" t="n">
-        <v>108592.2903484803</v>
+        <v>1131413.71973581</v>
       </c>
       <c r="M14" t="n">
-        <v>74587.67971944956</v>
+        <v>1074053.093644282</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1019347.173647335</v>
+        <v>4919753.246827807</v>
       </c>
       <c r="C15" t="n">
-        <v>988817.9122730243</v>
+        <v>5190211.248560331</v>
       </c>
       <c r="D15" t="n">
-        <v>961370.7245490417</v>
+        <v>5477316.739636058</v>
       </c>
       <c r="E15" t="n">
-        <v>1616912.371345875</v>
+        <v>5226411.81586562</v>
       </c>
       <c r="F15" t="n">
-        <v>1230284.184867046</v>
+        <v>5448184.264641229</v>
       </c>
       <c r="G15" t="n">
-        <v>1199754.923492736</v>
+        <v>5718642.266373753</v>
       </c>
       <c r="H15" t="n">
-        <v>1172307.735768754</v>
+        <v>6005747.75744948</v>
       </c>
       <c r="I15" t="n">
-        <v>1827849.382565587</v>
+        <v>5754842.833679042</v>
       </c>
       <c r="J15" t="n">
-        <v>1441221.196086758</v>
+        <v>5976615.282454651</v>
       </c>
       <c r="K15" t="n">
-        <v>1410691.934712448</v>
+        <v>6247073.284187174</v>
       </c>
       <c r="L15" t="n">
-        <v>1383244.746988466</v>
+        <v>6534178.775262902</v>
       </c>
       <c r="M15" t="n">
-        <v>2038786.393785299</v>
+        <v>6283273.851492464</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1694444.335528911</v>
+        <v>9347025.59039256</v>
       </c>
       <c r="C16" t="n">
-        <v>1765405.518923431</v>
+        <v>10424127.90941375</v>
       </c>
       <c r="D16" t="n">
-        <v>1836167.181246365</v>
+        <v>10198325.54979992</v>
       </c>
       <c r="E16" t="n">
-        <v>1907128.271702617</v>
+        <v>9859036.162681935</v>
       </c>
       <c r="F16" t="n">
-        <v>1977844.84321411</v>
+        <v>9782787.68217434</v>
       </c>
       <c r="G16" t="n">
-        <v>2048806.02660863</v>
+        <v>10859890.00119554</v>
       </c>
       <c r="H16" t="n">
-        <v>2119567.688931563</v>
+        <v>10634087.6415817</v>
       </c>
       <c r="I16" t="n">
-        <v>2190528.779387815</v>
+        <v>10294798.25446372</v>
       </c>
       <c r="J16" t="n">
-        <v>2261245.350899308</v>
+        <v>10218549.77395612</v>
       </c>
       <c r="K16" t="n">
-        <v>2332206.534293829</v>
+        <v>11295652.09297732</v>
       </c>
       <c r="L16" t="n">
-        <v>2402968.196616763</v>
+        <v>11069849.73336348</v>
       </c>
       <c r="M16" t="n">
-        <v>2473929.287073015</v>
+        <v>10730560.3462455</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6290615.509719661</v>
+        <v>5573704.998890623</v>
       </c>
       <c r="C17" t="n">
-        <v>6386934.990212638</v>
+        <v>5592271.068291986</v>
       </c>
       <c r="D17" t="n">
-        <v>6483920.699286049</v>
+        <v>7181006.052097408</v>
       </c>
       <c r="E17" t="n">
-        <v>6581027.836503477</v>
+        <v>4380542.764832458</v>
       </c>
       <c r="F17" t="n">
-        <v>6677852.150335873</v>
+        <v>5970576.819254797</v>
       </c>
       <c r="G17" t="n">
-        <v>6774171.63082885</v>
+        <v>5989142.88865616</v>
       </c>
       <c r="H17" t="n">
-        <v>6871157.339902261</v>
+        <v>7577877.872461582</v>
       </c>
       <c r="I17" t="n">
-        <v>6968264.477119689</v>
+        <v>4777414.585196631</v>
       </c>
       <c r="J17" t="n">
-        <v>7065088.790952085</v>
+        <v>6367448.63961897</v>
       </c>
       <c r="K17" t="n">
-        <v>7161408.271445062</v>
+        <v>6386014.709020333</v>
       </c>
       <c r="L17" t="n">
-        <v>7258393.980518473</v>
+        <v>7974749.692825755</v>
       </c>
       <c r="M17" t="n">
-        <v>7355501.117735901</v>
+        <v>5174286.405560805</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>192299.7518631743</v>
+        <v>3236245.057949225</v>
       </c>
       <c r="C18" t="n">
-        <v>88292.89625669859</v>
+        <v>3868788.939351827</v>
       </c>
       <c r="D18" t="n">
-        <v>144133.3231556087</v>
+        <v>3254143.370209107</v>
       </c>
       <c r="E18" t="n">
-        <v>165862.5964823072</v>
+        <v>3632950.413452548</v>
       </c>
       <c r="F18" t="n">
-        <v>-242738.0619422817</v>
+        <v>3348565.355036889</v>
       </c>
       <c r="G18" t="n">
-        <v>-346744.9175487573</v>
+        <v>3981109.236439491</v>
       </c>
       <c r="H18" t="n">
-        <v>-290904.4906498472</v>
+        <v>3366463.66729677</v>
       </c>
       <c r="I18" t="n">
-        <v>-269175.2173231487</v>
+        <v>3745270.710540211</v>
       </c>
       <c r="J18" t="n">
-        <v>-677775.8757477376</v>
+        <v>3460885.652124553</v>
       </c>
       <c r="K18" t="n">
-        <v>-781782.7313542132</v>
+        <v>4093429.533527154</v>
       </c>
       <c r="L18" t="n">
-        <v>-725942.304455303</v>
+        <v>3478783.964384434</v>
       </c>
       <c r="M18" t="n">
-        <v>-704213.0311286045</v>
+        <v>3857591.007627875</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-16895.7973699698</v>
+        <v>6525085.708100844</v>
       </c>
       <c r="C19" t="n">
-        <v>-47304.34717865647</v>
+        <v>7124494.959171941</v>
       </c>
       <c r="D19" t="n">
-        <v>-33027.30729389453</v>
+        <v>6812974.393214629</v>
       </c>
       <c r="E19" t="n">
-        <v>-51685.90683898883</v>
+        <v>5987900.78504739</v>
       </c>
       <c r="F19" t="n">
-        <v>-46585.67218178455</v>
+        <v>7291409.87408483</v>
       </c>
       <c r="G19" t="n">
-        <v>-76994.22199047121</v>
+        <v>7890819.125155927</v>
       </c>
       <c r="H19" t="n">
-        <v>-62717.18210570927</v>
+        <v>7579298.559198615</v>
       </c>
       <c r="I19" t="n">
-        <v>-81375.78165080358</v>
+        <v>6754224.951031376</v>
       </c>
       <c r="J19" t="n">
-        <v>-76275.5469935993</v>
+        <v>8057734.040068816</v>
       </c>
       <c r="K19" t="n">
-        <v>-106684.096802286</v>
+        <v>8657143.291139912</v>
       </c>
       <c r="L19" t="n">
-        <v>-92407.05691752402</v>
+        <v>8345622.725182599</v>
       </c>
       <c r="M19" t="n">
-        <v>-111065.6564626183</v>
+        <v>7520549.11701536</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2730688.970374946</v>
+        <v>1980025.77471705</v>
       </c>
       <c r="C20" t="n">
-        <v>2586348.465919022</v>
+        <v>1520029.1663289</v>
       </c>
       <c r="D20" t="n">
-        <v>2474759.136149021</v>
+        <v>274340.5932656601</v>
       </c>
       <c r="E20" t="n">
-        <v>2631886.827283173</v>
+        <v>574639.764831444</v>
       </c>
       <c r="F20" t="n">
-        <v>2837188.019044529</v>
+        <v>1513010.933578483</v>
       </c>
       <c r="G20" t="n">
-        <v>2692847.514588605</v>
+        <v>1053014.325190333</v>
       </c>
       <c r="H20" t="n">
-        <v>2581258.184818603</v>
+        <v>-192674.2478729067</v>
       </c>
       <c r="I20" t="n">
-        <v>2738385.875952755</v>
+        <v>107624.9236928772</v>
       </c>
       <c r="J20" t="n">
-        <v>2943687.067714111</v>
+        <v>1045996.092439916</v>
       </c>
       <c r="K20" t="n">
-        <v>2799346.563258187</v>
+        <v>585999.4840517666</v>
       </c>
       <c r="L20" t="n">
-        <v>2687757.233488185</v>
+        <v>-659689.0890114736</v>
       </c>
       <c r="M20" t="n">
-        <v>2844884.924622337</v>
+        <v>-359389.9174456897</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1327420.191141183</v>
+        <v>3377087.481724807</v>
       </c>
       <c r="C21" t="n">
-        <v>1741801.622599961</v>
+        <v>4616753.454495582</v>
       </c>
       <c r="D21" t="n">
-        <v>1384479.21504633</v>
+        <v>5122529.811453784</v>
       </c>
       <c r="E21" t="n">
-        <v>1667272.044339593</v>
+        <v>2655756.485006513</v>
       </c>
       <c r="F21" t="n">
-        <v>1414701.02132313</v>
+        <v>3405689.13139798</v>
       </c>
       <c r="G21" t="n">
-        <v>1829082.452781909</v>
+        <v>4645355.104168755</v>
       </c>
       <c r="H21" t="n">
-        <v>1471760.045228278</v>
+        <v>5151131.461126957</v>
       </c>
       <c r="I21" t="n">
-        <v>1754552.874521541</v>
+        <v>2684358.134679686</v>
       </c>
       <c r="J21" t="n">
-        <v>1501981.851505078</v>
+        <v>3434290.781071153</v>
       </c>
       <c r="K21" t="n">
-        <v>1916363.282963857</v>
+        <v>4673956.753841928</v>
       </c>
       <c r="L21" t="n">
-        <v>1559040.875410226</v>
+        <v>5179733.11080013</v>
       </c>
       <c r="M21" t="n">
-        <v>1841833.704703489</v>
+        <v>2712959.784352859</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>536601.472003835</v>
+        <v>13400799.02029505</v>
       </c>
       <c r="C22" t="n">
-        <v>536679.1143751958</v>
+        <v>13655722.17977174</v>
       </c>
       <c r="D22" t="n">
-        <v>537223.6025356925</v>
+        <v>13078928.16127301</v>
       </c>
       <c r="E22" t="n">
-        <v>537011.0060496957</v>
+        <v>12840247.23494509</v>
       </c>
       <c r="F22" t="n">
-        <v>536840.111987008</v>
+        <v>14196634.79890307</v>
       </c>
       <c r="G22" t="n">
-        <v>536917.7543583688</v>
+        <v>14451557.95837976</v>
       </c>
       <c r="H22" t="n">
-        <v>537462.2425188655</v>
+        <v>13874763.93988104</v>
       </c>
       <c r="I22" t="n">
-        <v>537249.6460328687</v>
+        <v>13636083.01355311</v>
       </c>
       <c r="J22" t="n">
-        <v>537078.751970181</v>
+        <v>14992470.5775111</v>
       </c>
       <c r="K22" t="n">
-        <v>537156.3943415418</v>
+        <v>15247393.73698779</v>
       </c>
       <c r="L22" t="n">
-        <v>537700.8825020385</v>
+        <v>14670599.71848906</v>
       </c>
       <c r="M22" t="n">
-        <v>537488.2860160416</v>
+        <v>14431918.79216114</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4090.866782092114</v>
+        <v>4468027.282688613</v>
       </c>
       <c r="C23" t="n">
-        <v>4142.920339888147</v>
+        <v>4712452.030166603</v>
       </c>
       <c r="D23" t="n">
-        <v>4125.841557808872</v>
+        <v>4981035.336943762</v>
       </c>
       <c r="E23" t="n">
-        <v>4212.797855381601</v>
+        <v>4172938.72763703</v>
       </c>
       <c r="F23" t="n">
-        <v>4096.430326308324</v>
+        <v>3658030.758391752</v>
       </c>
       <c r="G23" t="n">
-        <v>4148.483884104357</v>
+        <v>3902455.505869741</v>
       </c>
       <c r="H23" t="n">
-        <v>4131.405102025082</v>
+        <v>4171038.812646901</v>
       </c>
       <c r="I23" t="n">
-        <v>4218.36139959781</v>
+        <v>3362942.203340168</v>
       </c>
       <c r="J23" t="n">
-        <v>4101.993870524533</v>
+        <v>2848034.23409489</v>
       </c>
       <c r="K23" t="n">
-        <v>4154.047428320566</v>
+        <v>3092458.981572878</v>
       </c>
       <c r="L23" t="n">
-        <v>4136.968646241291</v>
+        <v>3361042.288350038</v>
       </c>
       <c r="M23" t="n">
-        <v>4223.92494381402</v>
+        <v>2552945.679043305</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>11874814.67012562</v>
+        <v>10827565.66390154</v>
       </c>
       <c r="C24" t="n">
-        <v>13220545.99388666</v>
+        <v>12107304.84934916</v>
       </c>
       <c r="D24" t="n">
-        <v>14057170.77345206</v>
+        <v>12300983.98202935</v>
       </c>
       <c r="E24" t="n">
-        <v>13483138.34131473</v>
+        <v>10239581.67303551</v>
       </c>
       <c r="F24" t="n">
-        <v>12269555.51867364</v>
+        <v>11734970.0008277</v>
       </c>
       <c r="G24" t="n">
-        <v>13615286.84243469</v>
+        <v>13014709.18627532</v>
       </c>
       <c r="H24" t="n">
-        <v>14451911.62200008</v>
+        <v>13208388.31895551</v>
       </c>
       <c r="I24" t="n">
-        <v>13877879.18986275</v>
+        <v>11146986.00996167</v>
       </c>
       <c r="J24" t="n">
-        <v>12664296.36722167</v>
+        <v>12642374.33775387</v>
       </c>
       <c r="K24" t="n">
-        <v>14010027.69098271</v>
+        <v>13922113.52320148</v>
       </c>
       <c r="L24" t="n">
-        <v>14846652.47054811</v>
+        <v>14115792.65588167</v>
       </c>
       <c r="M24" t="n">
-        <v>14272620.03841078</v>
+        <v>12054390.34688783</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2325994.006120179</v>
+        <v>4152345.686381152</v>
       </c>
       <c r="C25" t="n">
-        <v>3098101.224260785</v>
+        <v>4525025.150336774</v>
       </c>
       <c r="D25" t="n">
-        <v>2946799.090991222</v>
+        <v>4859793.512852408</v>
       </c>
       <c r="E25" t="n">
-        <v>2976770.950325696</v>
+        <v>3441704.577078186</v>
       </c>
       <c r="F25" t="n">
-        <v>2347927.596217731</v>
+        <v>3950833.495523243</v>
       </c>
       <c r="G25" t="n">
-        <v>3120034.814358337</v>
+        <v>4323512.959478864</v>
       </c>
       <c r="H25" t="n">
-        <v>2968732.681088774</v>
+        <v>4658281.321994498</v>
       </c>
       <c r="I25" t="n">
-        <v>2998704.540423248</v>
+        <v>3240192.386220276</v>
       </c>
       <c r="J25" t="n">
-        <v>2369861.186315283</v>
+        <v>3749321.304665333</v>
       </c>
       <c r="K25" t="n">
-        <v>3141968.404455889</v>
+        <v>4122000.768620955</v>
       </c>
       <c r="L25" t="n">
-        <v>2990666.271186327</v>
+        <v>4456769.131136589</v>
       </c>
       <c r="M25" t="n">
-        <v>3020638.1305208</v>
+        <v>3038680.195362367</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>12448505.67158449</v>
+        <v>11712710.17805698</v>
       </c>
       <c r="C26" t="n">
-        <v>12719941.80812998</v>
+        <v>11801182.74798465</v>
       </c>
       <c r="D26" t="n">
-        <v>12990519.70064964</v>
+        <v>12181038.93881348</v>
       </c>
       <c r="E26" t="n">
-        <v>13790909.81231757</v>
+        <v>11226945.42789095</v>
       </c>
       <c r="F26" t="n">
-        <v>13529909.39493663</v>
+        <v>12369707.72698842</v>
       </c>
       <c r="G26" t="n">
-        <v>13801345.53148212</v>
+        <v>12458180.2969161</v>
       </c>
       <c r="H26" t="n">
-        <v>14071923.42400178</v>
+        <v>12838036.48774492</v>
       </c>
       <c r="I26" t="n">
-        <v>14872313.53566971</v>
+        <v>11883942.97682239</v>
       </c>
       <c r="J26" t="n">
-        <v>14611313.11828877</v>
+        <v>13026705.27591986</v>
       </c>
       <c r="K26" t="n">
-        <v>14882749.25483426</v>
+        <v>13115177.84584754</v>
       </c>
       <c r="L26" t="n">
-        <v>15153327.14735393</v>
+        <v>13495034.03667636</v>
       </c>
       <c r="M26" t="n">
-        <v>15953717.25902185</v>
+        <v>12540940.52575384</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>17079475.10715117</v>
+        <v>2970023.638158642</v>
       </c>
       <c r="C27" t="n">
-        <v>18966341.75160059</v>
+        <v>3803973.96448664</v>
       </c>
       <c r="D27" t="n">
-        <v>18588952.98329108</v>
+        <v>3696105.652611633</v>
       </c>
       <c r="E27" t="n">
-        <v>20371315.36529486</v>
+        <v>2489539.4730723</v>
       </c>
       <c r="F27" t="n">
-        <v>18684560.55959038</v>
+        <v>2967224.115846924</v>
       </c>
       <c r="G27" t="n">
-        <v>20571427.2040398</v>
+        <v>3801174.442174923</v>
       </c>
       <c r="H27" t="n">
-        <v>20194038.43573028</v>
+        <v>3693306.130299916</v>
       </c>
       <c r="I27" t="n">
-        <v>21976400.81773406</v>
+        <v>2486739.950760582</v>
       </c>
       <c r="J27" t="n">
-        <v>20289646.01202958</v>
+        <v>2964424.593535207</v>
       </c>
       <c r="K27" t="n">
-        <v>22176512.656479</v>
+        <v>3798374.919863206</v>
       </c>
       <c r="L27" t="n">
-        <v>21799123.88816949</v>
+        <v>3690506.607988199</v>
       </c>
       <c r="M27" t="n">
-        <v>23581486.27017326</v>
+        <v>2483940.428448865</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>20781489.41661718</v>
+        <v>10408453.40258114</v>
       </c>
       <c r="C28" t="n">
-        <v>21367636.23731514</v>
+        <v>9895919.802788893</v>
       </c>
       <c r="D28" t="n">
-        <v>21954543.70946602</v>
+        <v>11011556.98700621</v>
       </c>
       <c r="E28" t="n">
-        <v>22538698.39458581</v>
+        <v>7697269.370716242</v>
       </c>
       <c r="F28" t="n">
-        <v>23123332.93873681</v>
+        <v>10007637.52372274</v>
       </c>
       <c r="G28" t="n">
-        <v>23709479.75943476</v>
+        <v>9495103.923930498</v>
       </c>
       <c r="H28" t="n">
-        <v>24296387.23158564</v>
+        <v>10610741.10814782</v>
       </c>
       <c r="I28" t="n">
-        <v>24880541.91670543</v>
+        <v>7296453.491857847</v>
       </c>
       <c r="J28" t="n">
-        <v>25465176.46085643</v>
+        <v>9606821.644864347</v>
       </c>
       <c r="K28" t="n">
-        <v>26051323.28155439</v>
+        <v>9094288.045072103</v>
       </c>
       <c r="L28" t="n">
-        <v>26638230.75370527</v>
+        <v>10209925.22928942</v>
       </c>
       <c r="M28" t="n">
-        <v>27222385.43882506</v>
+        <v>6895637.612999452</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>23169659.14331391</v>
+        <v>1845379.273541169</v>
       </c>
       <c r="C29" t="n">
-        <v>25562137.73690356</v>
+        <v>1883188.792033407</v>
       </c>
       <c r="D29" t="n">
-        <v>25562113.42243909</v>
+        <v>1865170.999344577</v>
       </c>
       <c r="E29" t="n">
-        <v>26595285.57216787</v>
+        <v>1892633.070137766</v>
       </c>
       <c r="F29" t="n">
-        <v>27434844.04853801</v>
+        <v>1929705.005684604</v>
       </c>
       <c r="G29" t="n">
-        <v>29827322.64212766</v>
+        <v>1967514.524176842</v>
       </c>
       <c r="H29" t="n">
-        <v>29827298.32766319</v>
+        <v>1949496.731488012</v>
       </c>
       <c r="I29" t="n">
-        <v>30860470.47739197</v>
+        <v>1976958.802281201</v>
       </c>
       <c r="J29" t="n">
-        <v>31700028.95376211</v>
+        <v>2014030.73782804</v>
       </c>
       <c r="K29" t="n">
-        <v>34092507.54735176</v>
+        <v>2051840.256320278</v>
       </c>
       <c r="L29" t="n">
-        <v>34092483.23288728</v>
+        <v>2033822.463631448</v>
       </c>
       <c r="M29" t="n">
-        <v>35125655.38261607</v>
+        <v>2061284.534424637</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>46264762.09377275</v>
+        <v>193324.9093408576</v>
       </c>
       <c r="C30" t="n">
-        <v>49516799.68761858</v>
+        <v>163861.3866531681</v>
       </c>
       <c r="D30" t="n">
-        <v>52821091.1721794</v>
+        <v>158008.3517155868</v>
       </c>
       <c r="E30" t="n">
-        <v>44594022.19857252</v>
+        <v>69190.20254091299</v>
       </c>
       <c r="F30" t="n">
-        <v>48853468.67676199</v>
+        <v>-25661.95688456885</v>
       </c>
       <c r="G30" t="n">
-        <v>52105506.27060782</v>
+        <v>-55125.47957225842</v>
       </c>
       <c r="H30" t="n">
-        <v>55409797.75516865</v>
+        <v>-60978.51450983965</v>
       </c>
       <c r="I30" t="n">
-        <v>47182728.78156177</v>
+        <v>-149796.6636845135</v>
       </c>
       <c r="J30" t="n">
-        <v>51442175.25975124</v>
+        <v>-244648.8231099953</v>
       </c>
       <c r="K30" t="n">
-        <v>54694212.85359707</v>
+        <v>-274112.3457976849</v>
       </c>
       <c r="L30" t="n">
-        <v>57998504.33815789</v>
+        <v>-279965.3807352661</v>
       </c>
       <c r="M30" t="n">
-        <v>49771435.36455102</v>
+        <v>-368783.52990994</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>40343763.81263129</v>
+        <v>2660526.331217815</v>
       </c>
       <c r="C31" t="n">
-        <v>39752306.76879729</v>
+        <v>2703099.138136639</v>
       </c>
       <c r="D31" t="n">
-        <v>41793095.93784314</v>
+        <v>3044848.107451828</v>
       </c>
       <c r="E31" t="n">
-        <v>39849306.02177431</v>
+        <v>3388413.165975538</v>
       </c>
       <c r="F31" t="n">
-        <v>41557795.33642586</v>
+        <v>3098926.292106104</v>
       </c>
       <c r="G31" t="n">
-        <v>40966338.29259185</v>
+        <v>3141499.099024928</v>
       </c>
       <c r="H31" t="n">
-        <v>43007127.46163771</v>
+        <v>3483248.068340117</v>
       </c>
       <c r="I31" t="n">
-        <v>41063337.54556887</v>
+        <v>3826813.126863827</v>
       </c>
       <c r="J31" t="n">
-        <v>42771826.86022042</v>
+        <v>3537326.252994393</v>
       </c>
       <c r="K31" t="n">
-        <v>42180369.81638642</v>
+        <v>3579899.059913217</v>
       </c>
       <c r="L31" t="n">
-        <v>44221158.98543227</v>
+        <v>3921648.029228406</v>
       </c>
       <c r="M31" t="n">
-        <v>42277369.06936343</v>
+        <v>4265213.087752116</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1575176.922312724</v>
+        <v>1634571.773568605</v>
       </c>
       <c r="C32" t="n">
-        <v>1694524.367704747</v>
+        <v>1632504.434127703</v>
       </c>
       <c r="D32" t="n">
-        <v>1813962.368900856</v>
+        <v>1664361.612161211</v>
       </c>
       <c r="E32" t="n">
-        <v>1933131.721497399</v>
+        <v>1595921.174622158</v>
       </c>
       <c r="F32" t="n">
-        <v>2052382.89073616</v>
+        <v>1631395.8180199</v>
       </c>
       <c r="G32" t="n">
-        <v>2171730.336128183</v>
+        <v>1629328.478578998</v>
       </c>
       <c r="H32" t="n">
-        <v>2291168.337324292</v>
+        <v>1661185.656612506</v>
       </c>
       <c r="I32" t="n">
-        <v>2410337.689920836</v>
+        <v>1592745.219073453</v>
       </c>
       <c r="J32" t="n">
-        <v>2529588.859159597</v>
+        <v>1628219.862471196</v>
       </c>
       <c r="K32" t="n">
-        <v>2648936.304551621</v>
+        <v>1626152.523030294</v>
       </c>
       <c r="L32" t="n">
-        <v>2768374.30574773</v>
+        <v>1658009.701063802</v>
       </c>
       <c r="M32" t="n">
-        <v>2887543.658344273</v>
+        <v>1589569.263524749</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4875944.49229233</v>
+        <v>2815280.305623019</v>
       </c>
       <c r="C33" t="n">
-        <v>5072303.166104787</v>
+        <v>2853159.16575827</v>
       </c>
       <c r="D33" t="n">
-        <v>5330149.309388743</v>
+        <v>2891119.076242932</v>
       </c>
       <c r="E33" t="n">
-        <v>5601148.298526629</v>
+        <v>2928741.302945392</v>
       </c>
       <c r="F33" t="n">
-        <v>5436882.465992015</v>
+        <v>2966644.218285477</v>
       </c>
       <c r="G33" t="n">
-        <v>5633241.139804472</v>
+        <v>3004523.078420728</v>
       </c>
       <c r="H33" t="n">
-        <v>5891087.283088428</v>
+        <v>3042482.988905389</v>
       </c>
       <c r="I33" t="n">
-        <v>6162086.272226314</v>
+        <v>3080105.215607849</v>
       </c>
       <c r="J33" t="n">
-        <v>5997820.4396917</v>
+        <v>3118008.130947934</v>
       </c>
       <c r="K33" t="n">
-        <v>6194179.113504157</v>
+        <v>3155886.991083186</v>
       </c>
       <c r="L33" t="n">
-        <v>6452025.256788113</v>
+        <v>3193846.901567847</v>
       </c>
       <c r="M33" t="n">
-        <v>6723024.245925999</v>
+        <v>3231469.128270307</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>12513360.56060561</v>
+        <v>3185155.880344099</v>
       </c>
       <c r="C34" t="n">
-        <v>11820926.01745128</v>
+        <v>3055428.087169917</v>
       </c>
       <c r="D34" t="n">
-        <v>12865285.45397977</v>
+        <v>3096177.218237392</v>
       </c>
       <c r="E34" t="n">
-        <v>13033466.11782616</v>
+        <v>3357099.7082327</v>
       </c>
       <c r="F34" t="n">
-        <v>13527258.55687814</v>
+        <v>3329473.715764889</v>
       </c>
       <c r="G34" t="n">
-        <v>12834824.01372381</v>
+        <v>3199745.922590706</v>
       </c>
       <c r="H34" t="n">
-        <v>13879183.45025229</v>
+        <v>3240495.053658181</v>
       </c>
       <c r="I34" t="n">
-        <v>14047364.11409869</v>
+        <v>3501417.54365349</v>
       </c>
       <c r="J34" t="n">
-        <v>14541156.55315066</v>
+        <v>3473791.551185678</v>
       </c>
       <c r="K34" t="n">
-        <v>13848722.00999634</v>
+        <v>3344063.758011495</v>
       </c>
       <c r="L34" t="n">
-        <v>14893081.44652482</v>
+        <v>3384812.88907897</v>
       </c>
       <c r="M34" t="n">
-        <v>15061262.11037122</v>
+        <v>3645735.379074279</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6285672.969746851</v>
+        <v>1243578.039945595</v>
       </c>
       <c r="C35" t="n">
-        <v>6441275.929631948</v>
+        <v>1243999.416952431</v>
       </c>
       <c r="D35" t="n">
-        <v>6595824.146415574</v>
+        <v>1244098.080392457</v>
       </c>
       <c r="E35" t="n">
-        <v>6750935.408751812</v>
+        <v>1244279.114017657</v>
       </c>
       <c r="F35" t="n">
-        <v>6905051.168620472</v>
+        <v>1244646.902557928</v>
       </c>
       <c r="G35" t="n">
-        <v>7060654.128505568</v>
+        <v>1245068.279564763</v>
       </c>
       <c r="H35" t="n">
-        <v>7215202.345289194</v>
+        <v>1245166.943004789</v>
       </c>
       <c r="I35" t="n">
-        <v>7370313.607625432</v>
+        <v>1245347.976629989</v>
       </c>
       <c r="J35" t="n">
-        <v>7524429.367494092</v>
+        <v>1245715.76517026</v>
       </c>
       <c r="K35" t="n">
-        <v>7680032.327379189</v>
+        <v>1246137.142177096</v>
       </c>
       <c r="L35" t="n">
-        <v>7834580.544162815</v>
+        <v>1246235.805617121</v>
       </c>
       <c r="M35" t="n">
-        <v>7989691.806499053</v>
+        <v>1246416.839242321</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3881410.486203317</v>
+        <v>990440.1003017358</v>
       </c>
       <c r="C36" t="n">
-        <v>3522838.169416379</v>
+        <v>667058.3741121546</v>
       </c>
       <c r="D36" t="n">
-        <v>4060422.74861312</v>
+        <v>586529.990046924</v>
       </c>
       <c r="E36" t="n">
-        <v>3563295.305660662</v>
+        <v>628259.0290273116</v>
       </c>
       <c r="F36" t="n">
-        <v>4127597.432036631</v>
+        <v>829276.9034777943</v>
       </c>
       <c r="G36" t="n">
-        <v>3769025.115249693</v>
+        <v>505895.177288213</v>
       </c>
       <c r="H36" t="n">
-        <v>4306609.694446433</v>
+        <v>425366.7932229824</v>
       </c>
       <c r="I36" t="n">
-        <v>3809482.251493976</v>
+        <v>467095.8322033701</v>
       </c>
       <c r="J36" t="n">
-        <v>4373784.377869945</v>
+        <v>668113.7066538527</v>
       </c>
       <c r="K36" t="n">
-        <v>4015212.061083007</v>
+        <v>344731.9804642715</v>
       </c>
       <c r="L36" t="n">
-        <v>4552796.640279748</v>
+        <v>264203.5963990409</v>
       </c>
       <c r="M36" t="n">
-        <v>4055669.19732729</v>
+        <v>305932.6353794285</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4521029.101159976</v>
+        <v>3517465.17064538</v>
       </c>
       <c r="C37" t="n">
-        <v>6049674.227083765</v>
+        <v>3725582.816266715</v>
       </c>
       <c r="D37" t="n">
-        <v>6651577.948996575</v>
+        <v>3302628.775903204</v>
       </c>
       <c r="E37" t="n">
-        <v>6230988.373024017</v>
+        <v>2846340.225687413</v>
       </c>
       <c r="F37" t="n">
-        <v>5058030.856294707</v>
+        <v>3042089.255598725</v>
       </c>
       <c r="G37" t="n">
-        <v>6586675.982218497</v>
+        <v>3250206.90122006</v>
       </c>
       <c r="H37" t="n">
-        <v>7188579.704131306</v>
+        <v>2827252.860856549</v>
       </c>
       <c r="I37" t="n">
-        <v>6767990.128158748</v>
+        <v>2370964.310640758</v>
       </c>
       <c r="J37" t="n">
-        <v>5595032.611429439</v>
+        <v>2566713.340552071</v>
       </c>
       <c r="K37" t="n">
-        <v>7123677.737353228</v>
+        <v>2774830.986173405</v>
       </c>
       <c r="L37" t="n">
-        <v>7725581.459266038</v>
+        <v>2351876.945809894</v>
       </c>
       <c r="M37" t="n">
-        <v>7304991.88329348</v>
+        <v>1895588.395594104</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1464803.15972213</v>
+        <v>4829963.7871535</v>
       </c>
       <c r="C38" t="n">
-        <v>2217771.159657886</v>
+        <v>4358206.899651905</v>
       </c>
       <c r="D38" t="n">
-        <v>1784204.038294131</v>
+        <v>4829901.530009982</v>
       </c>
       <c r="E38" t="n">
-        <v>723613.4401195066</v>
+        <v>4737077.355130063</v>
       </c>
       <c r="F38" t="n">
-        <v>1131650.739151257</v>
+        <v>5253074.34493365</v>
       </c>
       <c r="G38" t="n">
-        <v>1884618.739087014</v>
+        <v>4781317.457432055</v>
       </c>
       <c r="H38" t="n">
-        <v>1451051.617723258</v>
+        <v>5253012.087790133</v>
       </c>
       <c r="I38" t="n">
-        <v>390461.0195486338</v>
+        <v>5160187.912910214</v>
       </c>
       <c r="J38" t="n">
-        <v>798498.3185803846</v>
+        <v>5676184.902713801</v>
       </c>
       <c r="K38" t="n">
-        <v>1551466.318516141</v>
+        <v>5204428.015212205</v>
       </c>
       <c r="L38" t="n">
-        <v>1117899.197152385</v>
+        <v>5676122.645570283</v>
       </c>
       <c r="M38" t="n">
-        <v>57308.59897776111</v>
+        <v>5583298.470690364</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4177895.635085989</v>
+        <v>5220122.896042011</v>
       </c>
       <c r="C39" t="n">
-        <v>4500088.536332737</v>
+        <v>4376631.207073873</v>
       </c>
       <c r="D39" t="n">
-        <v>5124283.152587838</v>
+        <v>4811145.138214557</v>
       </c>
       <c r="E39" t="n">
-        <v>5381322.910137029</v>
+        <v>4072267.613974614</v>
       </c>
       <c r="F39" t="n">
-        <v>4565801.769622311</v>
+        <v>5058622.153106562</v>
       </c>
       <c r="G39" t="n">
-        <v>4887994.670869059</v>
+        <v>4215130.464138424</v>
       </c>
       <c r="H39" t="n">
-        <v>5512189.28712416</v>
+        <v>4649644.395279108</v>
       </c>
       <c r="I39" t="n">
-        <v>5769229.044673352</v>
+        <v>3910766.871039165</v>
       </c>
       <c r="J39" t="n">
-        <v>4953707.904158633</v>
+        <v>4897121.410171113</v>
       </c>
       <c r="K39" t="n">
-        <v>5275900.805405381</v>
+        <v>4053629.721202975</v>
       </c>
       <c r="L39" t="n">
-        <v>5900095.421660482</v>
+        <v>4488143.652343659</v>
       </c>
       <c r="M39" t="n">
-        <v>6157135.179209674</v>
+        <v>3749266.128103716</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>14142218.32638849</v>
+        <v>4863334.390602347</v>
       </c>
       <c r="C40" t="n">
-        <v>14143272.95142305</v>
+        <v>4801592.545068552</v>
       </c>
       <c r="D40" t="n">
-        <v>14667192.9034265</v>
+        <v>4900101.449363319</v>
       </c>
       <c r="E40" t="n">
-        <v>14036119.55746603</v>
+        <v>4463563.990349343</v>
       </c>
       <c r="F40" t="n">
-        <v>15337506.05308876</v>
+        <v>4833324.900219731</v>
       </c>
       <c r="G40" t="n">
-        <v>15338560.67812332</v>
+        <v>4771583.054685936</v>
       </c>
       <c r="H40" t="n">
-        <v>15862480.63012677</v>
+        <v>4870091.958980704</v>
       </c>
       <c r="I40" t="n">
-        <v>15231407.2841663</v>
+        <v>4433554.499966728</v>
       </c>
       <c r="J40" t="n">
-        <v>16532793.77978903</v>
+        <v>4803315.409837116</v>
       </c>
       <c r="K40" t="n">
-        <v>16533848.40482359</v>
+        <v>4741573.564303321</v>
       </c>
       <c r="L40" t="n">
-        <v>17057768.35682704</v>
+        <v>4840082.468598088</v>
       </c>
       <c r="M40" t="n">
-        <v>16426695.01086657</v>
+        <v>4403545.009584112</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5354383.95314537</v>
+        <v>3023047.175718017</v>
       </c>
       <c r="C41" t="n">
-        <v>5320168.204865039</v>
+        <v>2913965.938352862</v>
       </c>
       <c r="D41" t="n">
-        <v>5400287.367433909</v>
+        <v>3235460.148059765</v>
       </c>
       <c r="E41" t="n">
-        <v>5775253.119692719</v>
+        <v>2782488.335268627</v>
       </c>
       <c r="F41" t="n">
-        <v>5170738.640025929</v>
+        <v>2903985.712553475</v>
       </c>
       <c r="G41" t="n">
-        <v>5136522.891745598</v>
+        <v>2794904.47518832</v>
       </c>
       <c r="H41" t="n">
-        <v>5216642.054314468</v>
+        <v>3116398.684895223</v>
       </c>
       <c r="I41" t="n">
-        <v>5591607.806573277</v>
+        <v>2663426.872104086</v>
       </c>
       <c r="J41" t="n">
-        <v>4987093.326906487</v>
+        <v>2784924.249388933</v>
       </c>
       <c r="K41" t="n">
-        <v>4952877.578626157</v>
+        <v>2675843.012023778</v>
       </c>
       <c r="L41" t="n">
-        <v>5032996.741195027</v>
+        <v>2997337.221730681</v>
       </c>
       <c r="M41" t="n">
-        <v>5407962.493453836</v>
+        <v>2544365.408939544</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>9940010.507094424</v>
+        <v>2920357.166403871</v>
       </c>
       <c r="C42" t="n">
-        <v>11321915.02462653</v>
+        <v>2838618.632536569</v>
       </c>
       <c r="D42" t="n">
-        <v>12681716.92827598</v>
+        <v>3090503.137169315</v>
       </c>
       <c r="E42" t="n">
-        <v>12769647.81402447</v>
+        <v>2797686.776475236</v>
       </c>
       <c r="F42" t="n">
-        <v>10969639.10846146</v>
+        <v>2904907.895569706</v>
       </c>
       <c r="G42" t="n">
-        <v>12351543.62599356</v>
+        <v>2823169.361702404</v>
       </c>
       <c r="H42" t="n">
-        <v>13711345.52964301</v>
+        <v>3075053.86633515</v>
       </c>
       <c r="I42" t="n">
-        <v>13799276.41539151</v>
+        <v>2782237.505641071</v>
       </c>
       <c r="J42" t="n">
-        <v>11999267.70982849</v>
+        <v>2889458.624735542</v>
       </c>
       <c r="K42" t="n">
-        <v>13381172.2273606</v>
+        <v>2807720.090868239</v>
       </c>
       <c r="L42" t="n">
-        <v>14740974.13101005</v>
+        <v>3059604.595500986</v>
       </c>
       <c r="M42" t="n">
-        <v>14828905.01675854</v>
+        <v>2766788.234806906</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3926701.989862393</v>
+        <v>2718430.511589084</v>
       </c>
       <c r="C43" t="n">
-        <v>4357828.627273705</v>
+        <v>2689486.317767892</v>
       </c>
       <c r="D43" t="n">
-        <v>4768054.194327891</v>
+        <v>2920120.97310558</v>
       </c>
       <c r="E43" t="n">
-        <v>5073779.425731618</v>
+        <v>2288764.032614587</v>
       </c>
       <c r="F43" t="n">
-        <v>3808947.405911448</v>
+        <v>2418248.410687726</v>
       </c>
       <c r="G43" t="n">
-        <v>4240074.043322761</v>
+        <v>2389304.216866534</v>
       </c>
       <c r="H43" t="n">
-        <v>4650299.610376947</v>
+        <v>2619938.872204222</v>
       </c>
       <c r="I43" t="n">
-        <v>4956024.841780674</v>
+        <v>1988581.93171323</v>
       </c>
       <c r="J43" t="n">
-        <v>3691192.821960504</v>
+        <v>2118066.309786369</v>
       </c>
       <c r="K43" t="n">
-        <v>4122319.459371816</v>
+        <v>2089122.115965176</v>
       </c>
       <c r="L43" t="n">
-        <v>4532545.026426002</v>
+        <v>2319756.771302864</v>
       </c>
       <c r="M43" t="n">
-        <v>4838270.257829729</v>
+        <v>1688399.830811872</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>13675683.15445576</v>
+        <v>5325377.054887546</v>
       </c>
       <c r="C44" t="n">
-        <v>14046860.73239613</v>
+        <v>5623459.961071515</v>
       </c>
       <c r="D44" t="n">
-        <v>14096787.50109834</v>
+        <v>5343850.392211686</v>
       </c>
       <c r="E44" t="n">
-        <v>14542323.02526176</v>
+        <v>4964550.356276462</v>
       </c>
       <c r="F44" t="n">
-        <v>14575364.50433835</v>
+        <v>4947104.804041455</v>
       </c>
       <c r="G44" t="n">
-        <v>14946542.08227872</v>
+        <v>5245187.710225423</v>
       </c>
       <c r="H44" t="n">
-        <v>14996468.85098093</v>
+        <v>4965578.141365594</v>
       </c>
       <c r="I44" t="n">
-        <v>15442004.37514435</v>
+        <v>4586278.10543037</v>
       </c>
       <c r="J44" t="n">
-        <v>15475045.85422094</v>
+        <v>4568832.553195363</v>
       </c>
       <c r="K44" t="n">
-        <v>15846223.43216131</v>
+        <v>4866915.459379331</v>
       </c>
       <c r="L44" t="n">
-        <v>15896150.20086352</v>
+        <v>4587305.890519503</v>
       </c>
       <c r="M44" t="n">
-        <v>16341685.72502693</v>
+        <v>4208005.854584279</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4576524.284870709</v>
+        <v>2700428.585632752</v>
       </c>
       <c r="C45" t="n">
-        <v>4573290.201863946</v>
+        <v>2434789.180084917</v>
       </c>
       <c r="D45" t="n">
-        <v>5466540.662005137</v>
+        <v>2755655.522156849</v>
       </c>
       <c r="E45" t="n">
-        <v>5444410.190550885</v>
+        <v>2269663.921427377</v>
       </c>
       <c r="F45" t="n">
-        <v>4956043.067376292</v>
+        <v>2187560.182944726</v>
       </c>
       <c r="G45" t="n">
-        <v>4952808.984369529</v>
+        <v>1921920.77739689</v>
       </c>
       <c r="H45" t="n">
-        <v>5846059.44451072</v>
+        <v>2242787.119468823</v>
       </c>
       <c r="I45" t="n">
-        <v>5823928.973056468</v>
+        <v>1756795.518739351</v>
       </c>
       <c r="J45" t="n">
-        <v>5335561.849881875</v>
+        <v>1674691.780256699</v>
       </c>
       <c r="K45" t="n">
-        <v>5332327.766875112</v>
+        <v>1409052.374708864</v>
       </c>
       <c r="L45" t="n">
-        <v>6225578.227016303</v>
+        <v>1729918.716780796</v>
       </c>
       <c r="M45" t="n">
-        <v>6203447.755562051</v>
+        <v>1243927.116051324</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>9111421.650287028</v>
+        <v>2427399.016334082</v>
       </c>
       <c r="C46" t="n">
-        <v>11089287.40677438</v>
+        <v>2387098.079710063</v>
       </c>
       <c r="D46" t="n">
-        <v>10695910.50828162</v>
+        <v>2211548.361118298</v>
       </c>
       <c r="E46" t="n">
-        <v>11855652.74930443</v>
+        <v>2654860.478222508</v>
       </c>
       <c r="F46" t="n">
-        <v>9045810.552916784</v>
+        <v>2573076.222291803</v>
       </c>
       <c r="G46" t="n">
-        <v>11023676.30940413</v>
+        <v>2532775.285667783</v>
       </c>
       <c r="H46" t="n">
-        <v>10630299.41091137</v>
+        <v>2357225.567076018</v>
       </c>
       <c r="I46" t="n">
-        <v>11790041.65193419</v>
+        <v>2800537.684180229</v>
       </c>
       <c r="J46" t="n">
-        <v>8980199.455546539</v>
+        <v>2718753.428249523</v>
       </c>
       <c r="K46" t="n">
-        <v>10958065.21203389</v>
+        <v>2678452.491625503</v>
       </c>
       <c r="L46" t="n">
-        <v>10564688.31354113</v>
+        <v>2502902.773033738</v>
       </c>
       <c r="M46" t="n">
-        <v>11724430.55456394</v>
+        <v>2946214.890137949</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2350187.736880204</v>
+        <v>1872318.260912178</v>
       </c>
       <c r="C47" t="n">
-        <v>2409388.776962474</v>
+        <v>1882742.649223031</v>
       </c>
       <c r="D47" t="n">
-        <v>2513877.804852227</v>
+        <v>1893192.161369013</v>
       </c>
       <c r="E47" t="n">
-        <v>2441846.479715671</v>
+        <v>1903544.334021496</v>
       </c>
       <c r="F47" t="n">
-        <v>2560543.856241206</v>
+        <v>1913897.654147821</v>
       </c>
       <c r="G47" t="n">
-        <v>2619744.896323476</v>
+        <v>1924322.042458675</v>
       </c>
       <c r="H47" t="n">
-        <v>2724233.924213229</v>
+        <v>1934771.554604657</v>
       </c>
       <c r="I47" t="n">
-        <v>2652202.599076673</v>
+        <v>1945123.727257139</v>
       </c>
       <c r="J47" t="n">
-        <v>2770899.975602208</v>
+        <v>1955477.047383464</v>
       </c>
       <c r="K47" t="n">
-        <v>2830101.015684478</v>
+        <v>1965901.435694318</v>
       </c>
       <c r="L47" t="n">
-        <v>2934590.043574231</v>
+        <v>1976350.9478403</v>
       </c>
       <c r="M47" t="n">
-        <v>2862558.718437675</v>
+        <v>1986703.120492783</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>252300.0486608581</v>
+        <v>5324439.985729778</v>
       </c>
       <c r="C48" t="n">
-        <v>144421.625631723</v>
+        <v>4946589.475412969</v>
       </c>
       <c r="D48" t="n">
-        <v>91118.0895706353</v>
+        <v>5190468.779455192</v>
       </c>
       <c r="E48" t="n">
-        <v>61597.47819930672</v>
+        <v>4797356.383261478</v>
       </c>
       <c r="F48" t="n">
-        <v>-63269.98332392766</v>
+        <v>5543326.665223101</v>
       </c>
       <c r="G48" t="n">
-        <v>-171148.4063530627</v>
+        <v>5165476.154906292</v>
       </c>
       <c r="H48" t="n">
-        <v>-224451.9424141505</v>
+        <v>5409355.458948515</v>
       </c>
       <c r="I48" t="n">
-        <v>-253972.553785479</v>
+        <v>5016243.062754801</v>
       </c>
       <c r="J48" t="n">
-        <v>-378840.0153087134</v>
+        <v>5762213.344716424</v>
       </c>
       <c r="K48" t="n">
-        <v>-486718.4383378485</v>
+        <v>5384362.834399615</v>
       </c>
       <c r="L48" t="n">
-        <v>-540021.9743989363</v>
+        <v>5628242.138441838</v>
       </c>
       <c r="M48" t="n">
-        <v>-569542.5857702648</v>
+        <v>5235129.742248124</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>784931.1637727113</v>
+        <v>839481.6629237061</v>
       </c>
       <c r="C49" t="n">
-        <v>924028.3615022523</v>
+        <v>850223.3563868398</v>
       </c>
       <c r="D49" t="n">
-        <v>914025.5782022362</v>
+        <v>860946.5810400808</v>
       </c>
       <c r="E49" t="n">
-        <v>1085914.501652609</v>
+        <v>871552.7853136832</v>
       </c>
       <c r="F49" t="n">
-        <v>854156.6148204918</v>
+        <v>882263.8916525011</v>
       </c>
       <c r="G49" t="n">
-        <v>993253.8125500327</v>
+        <v>893005.5851156347</v>
       </c>
       <c r="H49" t="n">
-        <v>983251.0292500167</v>
+        <v>903728.8097688757</v>
       </c>
       <c r="I49" t="n">
-        <v>1155139.952700389</v>
+        <v>914335.0140424782</v>
       </c>
       <c r="J49" t="n">
-        <v>923382.0658682722</v>
+        <v>925046.120381296</v>
       </c>
       <c r="K49" t="n">
-        <v>1062479.263597813</v>
+        <v>935787.8138444297</v>
       </c>
       <c r="L49" t="n">
-        <v>1052476.480297797</v>
+        <v>946511.0384976707</v>
       </c>
       <c r="M49" t="n">
-        <v>1224365.40374817</v>
+        <v>957117.2427712731</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1828834.503599145</v>
+        <v>2884476.588447311</v>
       </c>
       <c r="C50" t="n">
-        <v>1851379.567195851</v>
+        <v>2755637.601859756</v>
       </c>
       <c r="D50" t="n">
-        <v>1873835.311823644</v>
+        <v>2970702.549314342</v>
       </c>
       <c r="E50" t="n">
-        <v>1896399.625988179</v>
+        <v>2793407.952066565</v>
       </c>
       <c r="F50" t="n">
-        <v>1918680.793820981</v>
+        <v>3085856.147596504</v>
       </c>
       <c r="G50" t="n">
-        <v>1941225.857417688</v>
+        <v>2957017.161008948</v>
       </c>
       <c r="H50" t="n">
-        <v>1963681.602045481</v>
+        <v>3172082.108463534</v>
       </c>
       <c r="I50" t="n">
-        <v>1986245.916210015</v>
+        <v>2994787.511215758</v>
       </c>
       <c r="J50" t="n">
-        <v>2008527.084042817</v>
+        <v>3287235.706745696</v>
       </c>
       <c r="K50" t="n">
-        <v>2031072.147639524</v>
+        <v>3158396.720158141</v>
       </c>
       <c r="L50" t="n">
-        <v>2053527.892267317</v>
+        <v>3373461.667612727</v>
       </c>
       <c r="M50" t="n">
-        <v>2076092.206431852</v>
+        <v>3196167.070364951</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2927431.548587491</v>
+        <v>3107331.068259553</v>
       </c>
       <c r="C51" t="n">
-        <v>2927931.333134511</v>
+        <v>3154163.096046621</v>
       </c>
       <c r="D51" t="n">
-        <v>2928432.053503581</v>
+        <v>3201402.926321972</v>
       </c>
       <c r="E51" t="n">
-        <v>2929021.194738357</v>
+        <v>3248363.391845461</v>
       </c>
       <c r="F51" t="n">
-        <v>2929261.289933571</v>
+        <v>3295436.772032064</v>
       </c>
       <c r="G51" t="n">
-        <v>2929761.074480591</v>
+        <v>3342268.799819133</v>
       </c>
       <c r="H51" t="n">
-        <v>2930261.794849661</v>
+        <v>3389508.630094483</v>
       </c>
       <c r="I51" t="n">
-        <v>2930850.936084437</v>
+        <v>3436469.095617972</v>
       </c>
       <c r="J51" t="n">
-        <v>2931091.031279651</v>
+        <v>3483542.475804576</v>
       </c>
       <c r="K51" t="n">
-        <v>2931590.815826671</v>
+        <v>3530374.503591644</v>
       </c>
       <c r="L51" t="n">
-        <v>2932091.536195741</v>
+        <v>3577614.333866995</v>
       </c>
       <c r="M51" t="n">
-        <v>2932680.677430517</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>4660507.634422482</v>
-      </c>
-      <c r="C52" t="n">
-        <v>3809358.814436206</v>
-      </c>
-      <c r="D52" t="n">
-        <v>3736852.415639271</v>
-      </c>
-      <c r="E52" t="n">
-        <v>3614711.380856159</v>
-      </c>
-      <c r="F52" t="n">
-        <v>5073817.985967216</v>
-      </c>
-      <c r="G52" t="n">
-        <v>4222669.16598094</v>
-      </c>
-      <c r="H52" t="n">
-        <v>4150162.767184005</v>
-      </c>
-      <c r="I52" t="n">
-        <v>4028021.732400893</v>
-      </c>
-      <c r="J52" t="n">
-        <v>5487128.33751195</v>
-      </c>
-      <c r="K52" t="n">
-        <v>4635979.517525674</v>
-      </c>
-      <c r="L52" t="n">
-        <v>4563473.118728738</v>
-      </c>
-      <c r="M52" t="n">
-        <v>4441332.083945627</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1660425.178580932</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1671199.618476799</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1682094.812594365</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1692699.283474794</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1703457.489857648</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1714231.929753514</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1725127.12387108</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1735731.594751509</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1746489.801134363</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1757264.24103023</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1768159.435147795</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1778763.906028224</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>666828.7803502943</v>
-      </c>
-      <c r="C54" t="n">
-        <v>940445.7917532879</v>
-      </c>
-      <c r="D54" t="n">
-        <v>624076.6517949401</v>
-      </c>
-      <c r="E54" t="n">
-        <v>550315.3131609813</v>
-      </c>
-      <c r="F54" t="n">
-        <v>554188.3390508302</v>
-      </c>
-      <c r="G54" t="n">
-        <v>827805.3504538238</v>
-      </c>
-      <c r="H54" t="n">
-        <v>511436.210495476</v>
-      </c>
-      <c r="I54" t="n">
-        <v>437674.8718615171</v>
-      </c>
-      <c r="J54" t="n">
-        <v>441547.8977513661</v>
-      </c>
-      <c r="K54" t="n">
-        <v>715164.9091543597</v>
-      </c>
-      <c r="L54" t="n">
-        <v>398795.7691960119</v>
-      </c>
-      <c r="M54" t="n">
-        <v>325034.4305620531</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>3798036.074821858</v>
-      </c>
-      <c r="C55" t="n">
-        <v>3822431.9422948</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4074529.007119593</v>
-      </c>
-      <c r="E55" t="n">
-        <v>3745047.902264087</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3633413.629249373</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3657809.496722315</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3909906.561547108</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3580425.456691603</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3468791.183676889</v>
-      </c>
-      <c r="K55" t="n">
-        <v>3493187.05114983</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3745284.115974623</v>
-      </c>
-      <c r="M55" t="n">
-        <v>3415803.011119117</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>4885004.575988413</v>
-      </c>
-      <c r="C56" t="n">
-        <v>5301245.044650955</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4954080.967972426</v>
-      </c>
-      <c r="E56" t="n">
-        <v>5412402.028421132</v>
-      </c>
-      <c r="F56" t="n">
-        <v>5460363.756805697</v>
-      </c>
-      <c r="G56" t="n">
-        <v>5876604.225468239</v>
-      </c>
-      <c r="H56" t="n">
-        <v>5529440.148789709</v>
-      </c>
-      <c r="I56" t="n">
-        <v>5987761.209238416</v>
-      </c>
-      <c r="J56" t="n">
-        <v>6035722.93762298</v>
-      </c>
-      <c r="K56" t="n">
-        <v>6451963.406285523</v>
-      </c>
-      <c r="L56" t="n">
-        <v>6104799.329606993</v>
-      </c>
-      <c r="M56" t="n">
-        <v>6563120.390055699</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>4590180.607431199</v>
-      </c>
-      <c r="C57" t="n">
-        <v>4964704.742107369</v>
-      </c>
-      <c r="D57" t="n">
-        <v>4539984.355542157</v>
-      </c>
-      <c r="E57" t="n">
-        <v>4901293.388612522</v>
-      </c>
-      <c r="F57" t="n">
-        <v>4488285.861850113</v>
-      </c>
-      <c r="G57" t="n">
-        <v>4862809.996526282</v>
-      </c>
-      <c r="H57" t="n">
-        <v>4438089.60996107</v>
-      </c>
-      <c r="I57" t="n">
-        <v>4799398.643031435</v>
-      </c>
-      <c r="J57" t="n">
-        <v>4386391.116269026</v>
-      </c>
-      <c r="K57" t="n">
-        <v>4760915.250945196</v>
-      </c>
-      <c r="L57" t="n">
-        <v>4336194.864379983</v>
-      </c>
-      <c r="M57" t="n">
-        <v>4697503.897450348</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>4597936.040711182</v>
-      </c>
-      <c r="C58" t="n">
-        <v>4613725.236551655</v>
-      </c>
-      <c r="D58" t="n">
-        <v>4724635.111971062</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5028958.08213376</v>
-      </c>
-      <c r="F58" t="n">
-        <v>4502850.541663478</v>
-      </c>
-      <c r="G58" t="n">
-        <v>4518639.737503951</v>
-      </c>
-      <c r="H58" t="n">
-        <v>4629549.612923358</v>
-      </c>
-      <c r="I58" t="n">
-        <v>4933872.583086056</v>
-      </c>
-      <c r="J58" t="n">
-        <v>4407765.042615774</v>
-      </c>
-      <c r="K58" t="n">
-        <v>4423554.238456247</v>
-      </c>
-      <c r="L58" t="n">
-        <v>4534464.113875654</v>
-      </c>
-      <c r="M58" t="n">
-        <v>4838787.084038352</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>3382230.217414014</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3294451.087912934</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3246956.719764188</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3647010.377736476</v>
-      </c>
-      <c r="F59" t="n">
-        <v>3561243.107650101</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3473463.978149021</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3425969.610000276</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3826023.267972563</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3740255.997886188</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3652476.868385108</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3604982.500236363</v>
-      </c>
-      <c r="M59" t="n">
-        <v>4005036.15820865</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>4179478.455866477</v>
-      </c>
-      <c r="C60" t="n">
-        <v>4194700.203426151</v>
-      </c>
-      <c r="D60" t="n">
-        <v>4269397.745782043</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4320672.501291695</v>
-      </c>
-      <c r="F60" t="n">
-        <v>4330288.106366595</v>
-      </c>
-      <c r="G60" t="n">
-        <v>4345509.853926269</v>
-      </c>
-      <c r="H60" t="n">
-        <v>4420207.396282162</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4471482.151791814</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4481097.756866714</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4496319.504426388</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4571017.04678228</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4622291.802291933</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2831149.765013103</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2909040.592744591</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2888303.477727746</v>
-      </c>
-      <c r="E61" t="n">
-        <v>3274903.190102342</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2844061.385612751</v>
-      </c>
-      <c r="G61" t="n">
-        <v>2921952.213344239</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2901215.098327394</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3287814.81070199</v>
-      </c>
-      <c r="J61" t="n">
-        <v>2856973.006212399</v>
-      </c>
-      <c r="K61" t="n">
-        <v>2934863.833943887</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2914126.718927042</v>
-      </c>
-      <c r="M61" t="n">
-        <v>3300726.431301638</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>6092588.408648426</v>
-      </c>
-      <c r="C62" t="n">
-        <v>6510678.944571591</v>
-      </c>
-      <c r="D62" t="n">
-        <v>6907693.661042717</v>
-      </c>
-      <c r="E62" t="n">
-        <v>6343627.010754713</v>
-      </c>
-      <c r="F62" t="n">
-        <v>6453577.461135605</v>
-      </c>
-      <c r="G62" t="n">
-        <v>6871667.997058771</v>
-      </c>
-      <c r="H62" t="n">
-        <v>7268682.713529897</v>
-      </c>
-      <c r="I62" t="n">
-        <v>6704616.063241892</v>
-      </c>
-      <c r="J62" t="n">
-        <v>6814566.513622785</v>
-      </c>
-      <c r="K62" t="n">
-        <v>7232657.04954595</v>
-      </c>
-      <c r="L62" t="n">
-        <v>7629671.766017077</v>
-      </c>
-      <c r="M62" t="n">
-        <v>7065605.115729072</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>3069472.929259616</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2914031.804767251</v>
-      </c>
-      <c r="D63" t="n">
-        <v>2636663.206247777</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3298407.608500643</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3149583.011268185</v>
-      </c>
-      <c r="G63" t="n">
-        <v>2994141.886775819</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2716773.288256345</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3378517.690509211</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3229693.093276753</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3074251.968784388</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2796883.370264914</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3458627.77251778</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2786920.950346233</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2716040.738223036</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2677662.006617279</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2599901.161873074</v>
-      </c>
-      <c r="F64" t="n">
-        <v>3090779.607019657</v>
-      </c>
-      <c r="G64" t="n">
-        <v>3019899.39489646</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2981520.663290703</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2903759.818546498</v>
-      </c>
-      <c r="J64" t="n">
-        <v>3394638.263693081</v>
-      </c>
-      <c r="K64" t="n">
-        <v>3323758.051569884</v>
-      </c>
-      <c r="L64" t="n">
-        <v>3285379.319964127</v>
-      </c>
-      <c r="M64" t="n">
-        <v>3207618.475219922</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>2349850.677782083</v>
-      </c>
-      <c r="C65" t="n">
-        <v>2389401.47284175</v>
-      </c>
-      <c r="D65" t="n">
-        <v>2429071.264660178</v>
-      </c>
-      <c r="E65" t="n">
-        <v>2468765.708541905</v>
-      </c>
-      <c r="F65" t="n">
-        <v>2508410.88145971</v>
-      </c>
-      <c r="G65" t="n">
-        <v>2547961.676519377</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2587631.468337804</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2627325.912219531</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2666971.085137336</v>
-      </c>
-      <c r="K65" t="n">
-        <v>2706521.880197003</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2746191.67201543</v>
-      </c>
-      <c r="M65" t="n">
-        <v>2785886.115897157</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>5352457.791965133</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5505701.295283543</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5328196.076875844</v>
-      </c>
-      <c r="E66" t="n">
-        <v>5305506.191402942</v>
-      </c>
-      <c r="F66" t="n">
-        <v>5186395.657219345</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5339639.160537755</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5162133.942130056</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5139444.056657154</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5020333.522473557</v>
-      </c>
-      <c r="K66" t="n">
-        <v>5173577.025791967</v>
-      </c>
-      <c r="L66" t="n">
-        <v>4996071.807384268</v>
-      </c>
-      <c r="M66" t="n">
-        <v>4973381.921911366</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>936498.9126412862</v>
-      </c>
-      <c r="C67" t="n">
-        <v>953044.8304178119</v>
-      </c>
-      <c r="D67" t="n">
-        <v>969641.3493164378</v>
-      </c>
-      <c r="E67" t="n">
-        <v>986220.8929965254</v>
-      </c>
-      <c r="F67" t="n">
-        <v>1002715.468622611</v>
-      </c>
-      <c r="G67" t="n">
-        <v>1019261.386399137</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1035857.905297763</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1052437.44897785</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1068932.024603936</v>
-      </c>
-      <c r="K67" t="n">
-        <v>1085477.942380462</v>
-      </c>
-      <c r="L67" t="n">
-        <v>1102074.461279088</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1118654.004959175</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>3074267.209061023</v>
-      </c>
-      <c r="C68" t="n">
-        <v>3144385.820096277</v>
-      </c>
-      <c r="D68" t="n">
-        <v>3214260.823701259</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3284404.130166825</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3354235.390291719</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3424354.001326973</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3494229.004931955</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3564372.311397521</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3634203.571522415</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3704322.182557669</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3774197.186162651</v>
-      </c>
-      <c r="M68" t="n">
-        <v>3844340.492628217</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>2813186.837180015</v>
-      </c>
-      <c r="C69" t="n">
-        <v>2848736.445590643</v>
-      </c>
-      <c r="D69" t="n">
-        <v>2884019.716597837</v>
-      </c>
-      <c r="E69" t="n">
-        <v>2919712.893568273</v>
-      </c>
-      <c r="F69" t="n">
-        <v>2955095.311920571</v>
-      </c>
-      <c r="G69" t="n">
-        <v>2990644.920331198</v>
-      </c>
-      <c r="H69" t="n">
-        <v>3025928.191338392</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3061621.368308829</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3097003.786661126</v>
-      </c>
-      <c r="K69" t="n">
-        <v>3132553.395071754</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3167836.666078948</v>
-      </c>
-      <c r="M69" t="n">
-        <v>3203529.843049384</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>44952344.2669847</v>
-      </c>
-      <c r="C70" t="n">
-        <v>52117762.06377614</v>
-      </c>
-      <c r="D70" t="n">
-        <v>51498113.80834699</v>
-      </c>
-      <c r="E70" t="n">
-        <v>63879849.96256548</v>
-      </c>
-      <c r="F70" t="n">
-        <v>65012320.9305307</v>
-      </c>
-      <c r="G70" t="n">
-        <v>72177738.72732213</v>
-      </c>
-      <c r="H70" t="n">
-        <v>71558090.47189297</v>
-      </c>
-      <c r="I70" t="n">
-        <v>83939826.62611146</v>
-      </c>
-      <c r="J70" t="n">
-        <v>85072297.59407668</v>
-      </c>
-      <c r="K70" t="n">
-        <v>92237715.3908681</v>
-      </c>
-      <c r="L70" t="n">
-        <v>91618067.13543893</v>
-      </c>
-      <c r="M70" t="n">
-        <v>103999803.2896574</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>27819934.79102949</v>
-      </c>
-      <c r="C71" t="n">
-        <v>32748617.53846583</v>
-      </c>
-      <c r="D71" t="n">
-        <v>35334806.7091139</v>
-      </c>
-      <c r="E71" t="n">
-        <v>43783585.21422574</v>
-      </c>
-      <c r="F71" t="n">
-        <v>36021922.13018198</v>
-      </c>
-      <c r="G71" t="n">
-        <v>40950604.87761831</v>
-      </c>
-      <c r="H71" t="n">
-        <v>43536794.04826638</v>
-      </c>
-      <c r="I71" t="n">
-        <v>51985572.55337822</v>
-      </c>
-      <c r="J71" t="n">
-        <v>44223909.46933446</v>
-      </c>
-      <c r="K71" t="n">
-        <v>49152592.2167708</v>
-      </c>
-      <c r="L71" t="n">
-        <v>51738781.38741887</v>
-      </c>
-      <c r="M71" t="n">
-        <v>60187559.89253071</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>2308023.494116</v>
-      </c>
-      <c r="C72" t="n">
-        <v>354472.9743168964</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1819821.222068002</v>
-      </c>
-      <c r="E72" t="n">
-        <v>955649.6672705979</v>
-      </c>
-      <c r="F72" t="n">
-        <v>2466301.097664749</v>
-      </c>
-      <c r="G72" t="n">
-        <v>512750.5778656448</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1978098.825616751</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1113927.270819346</v>
-      </c>
-      <c r="J72" t="n">
-        <v>2624578.701213497</v>
-      </c>
-      <c r="K72" t="n">
-        <v>671028.1814143932</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2136376.4291655</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1272204.874368095</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>12054104.63160915</v>
-      </c>
-      <c r="C73" t="n">
-        <v>12411796.11986593</v>
-      </c>
-      <c r="D73" t="n">
-        <v>12768762.54149651</v>
-      </c>
-      <c r="E73" t="n">
-        <v>13126120.61209403</v>
-      </c>
-      <c r="F73" t="n">
-        <v>13482635.75513999</v>
-      </c>
-      <c r="G73" t="n">
-        <v>13840327.24339677</v>
-      </c>
-      <c r="H73" t="n">
-        <v>14197293.66502735</v>
-      </c>
-      <c r="I73" t="n">
-        <v>14554651.73562488</v>
-      </c>
-      <c r="J73" t="n">
-        <v>14911166.87867084</v>
-      </c>
-      <c r="K73" t="n">
-        <v>15268858.36692761</v>
-      </c>
-      <c r="L73" t="n">
-        <v>15625824.78855819</v>
-      </c>
-      <c r="M73" t="n">
-        <v>15983182.85915572</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>17651675.12995874</v>
-      </c>
-      <c r="C74" t="n">
-        <v>21787210.13819501</v>
-      </c>
-      <c r="D74" t="n">
-        <v>23018279.19241764</v>
-      </c>
-      <c r="E74" t="n">
-        <v>23070724.63550392</v>
-      </c>
-      <c r="F74" t="n">
-        <v>18872246.75389799</v>
-      </c>
-      <c r="G74" t="n">
-        <v>23007781.76213426</v>
-      </c>
-      <c r="H74" t="n">
-        <v>24238850.81635688</v>
-      </c>
-      <c r="I74" t="n">
-        <v>24291296.25944317</v>
-      </c>
-      <c r="J74" t="n">
-        <v>20092818.37783723</v>
-      </c>
-      <c r="K74" t="n">
-        <v>24228353.3860735</v>
-      </c>
-      <c r="L74" t="n">
-        <v>25459422.44029613</v>
-      </c>
-      <c r="M74" t="n">
-        <v>25511867.88338241</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>33258335.93581484</v>
-      </c>
-      <c r="C75" t="n">
-        <v>35704819.09155064</v>
-      </c>
-      <c r="D75" t="n">
-        <v>36727044.4838608</v>
-      </c>
-      <c r="E75" t="n">
-        <v>38852962.91895463</v>
-      </c>
-      <c r="F75" t="n">
-        <v>37136879.98755668</v>
-      </c>
-      <c r="G75" t="n">
-        <v>39583363.14329248</v>
-      </c>
-      <c r="H75" t="n">
-        <v>40605588.53560264</v>
-      </c>
-      <c r="I75" t="n">
-        <v>42731506.97069647</v>
-      </c>
-      <c r="J75" t="n">
-        <v>41015424.03929852</v>
-      </c>
-      <c r="K75" t="n">
-        <v>43461907.19503432</v>
-      </c>
-      <c r="L75" t="n">
-        <v>44484132.58734448</v>
-      </c>
-      <c r="M75" t="n">
-        <v>46610051.02243831</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>20781489.41661718</v>
-      </c>
-      <c r="C76" t="n">
-        <v>21367636.23731514</v>
-      </c>
-      <c r="D76" t="n">
-        <v>21954543.70946602</v>
-      </c>
-      <c r="E76" t="n">
-        <v>22538698.39458581</v>
-      </c>
-      <c r="F76" t="n">
-        <v>23123332.93873681</v>
-      </c>
-      <c r="G76" t="n">
-        <v>23709479.75943476</v>
-      </c>
-      <c r="H76" t="n">
-        <v>24296387.23158564</v>
-      </c>
-      <c r="I76" t="n">
-        <v>24880541.91670543</v>
-      </c>
-      <c r="J76" t="n">
-        <v>25465176.46085643</v>
-      </c>
-      <c r="K76" t="n">
-        <v>26051323.28155439</v>
-      </c>
-      <c r="L76" t="n">
-        <v>26638230.75370527</v>
-      </c>
-      <c r="M76" t="n">
-        <v>27222385.43882506</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>23121677.40893233</v>
-      </c>
-      <c r="C77" t="n">
-        <v>25488577.99191225</v>
-      </c>
-      <c r="D77" t="n">
-        <v>25499643.93367455</v>
-      </c>
-      <c r="E77" t="n">
-        <v>26549751.94784671</v>
-      </c>
-      <c r="F77" t="n">
-        <v>27341190.04426026</v>
-      </c>
-      <c r="G77" t="n">
-        <v>29708090.62724018</v>
-      </c>
-      <c r="H77" t="n">
-        <v>29719156.56900249</v>
-      </c>
-      <c r="I77" t="n">
-        <v>30769264.58317465</v>
-      </c>
-      <c r="J77" t="n">
-        <v>31560702.6795882</v>
-      </c>
-      <c r="K77" t="n">
-        <v>33927603.26256812</v>
-      </c>
-      <c r="L77" t="n">
-        <v>33938669.20433043</v>
-      </c>
-      <c r="M77" t="n">
-        <v>34988777.21850259</v>
+        <v>3624574.799390484</v>
       </c>
     </row>
   </sheetData>
